--- a/git_notes.xlsx
+++ b/git_notes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Command</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>Shows the different branches and which one is current with asterisk</t>
+  </si>
+  <si>
+    <t>git push origin master</t>
+  </si>
+  <si>
+    <t>Pushes local repo to remote repository</t>
+  </si>
+  <si>
+    <t>git pull --rebase origin master</t>
+  </si>
+  <si>
+    <t>Pulls remote repository and rebase tells git to move all of the local commits to the tip of the master branch.</t>
   </si>
 </sst>
 </file>
@@ -430,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,6 +550,22 @@
       </c>
       <c r="B12" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/git_notes.xlsx
+++ b/git_notes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Command</t>
   </si>
@@ -103,19 +103,37 @@
   </si>
   <si>
     <t>Pulls remote repository and rebase tells git to move all of the local commits to the tip of the master branch.</t>
+  </si>
+  <si>
+    <t>git rebase --abort</t>
+  </si>
+  <si>
+    <t>Aborts the last git pull --rebase request</t>
+  </si>
+  <si>
+    <t>git config --list --show-origin</t>
+  </si>
+  <si>
+    <t>Shows where the git config file is</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,9 +156,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -153,6 +172,1166 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="https://pixel-geo.prfct.co/cs/?partnerId=mrin"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2857500"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="https://pixel-geo.prfct.co/cs/?partnerId=yah"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19050" y="2857500"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="https://pixel-geo.prfct.co/cs/?partnerId=twtr"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="38100" y="2857500"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="https://pixel-geo.prfct.co/cs/?partnerId=opx"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="57150" y="2857500"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="https://pixel-geo.prfct.co/cs/?partnerId=crw"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="76200" y="2857500"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="https://pixel-geo.prfct.co/cs/?partnerId=pub"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="2857500"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="https://pixel-geo.prfct.co/cs/?partnerId=rbcn"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="114300" y="2857500"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="https://pixel-geo.prfct.co/cs/?partnerId=goo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="133350" y="2857500"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="https://pixel-geo.prfct.co/cs/?partnerId=fbx"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="152400" y="2857500"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="https://pixel-geo.prfct.co/seg/?add=2378162&amp;source=js_tag&amp;a_id=35222&amp;obscure_ip=1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="171450" y="2857500"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="https://secure.adnxs.com/seg?t=2&amp;add=2378162"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="190500" y="2857500"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="https://d.adroll.com/cm/index/out"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3048000"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="https://d.adroll.com/cm/n/out"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19050" y="3048000"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="https://d.adroll.com/cm/r/out"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3238500"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="https://d.adroll.com/cm/f/out"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19050" y="3238500"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="https://d.adroll.com/cm/b/out"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="38100" y="3238500"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="https://d.adroll.com/cm/w/out"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="57150" y="3238500"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="https://d.adroll.com/cm/x/out"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="76200" y="3238500"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="https://d.adroll.com/cm/l/out"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="3238500"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20" descr="https://d.adroll.com/cm/o/out"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="114300" y="3238500"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21" descr="https://d.adroll.com/cm/g/out?google_nid=adroll"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="133350" y="3238500"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,8 +1747,31 @@
         <v>28</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/git_notes.xlsx
+++ b/git_notes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Command</t>
   </si>
@@ -115,13 +115,25 @@
   </si>
   <si>
     <t>Shows where the git config file is</t>
+  </si>
+  <si>
+    <t>$ git commit --amend</t>
+  </si>
+  <si>
+    <t>This allows you to change the message from the original commit message</t>
+  </si>
+  <si>
+    <t>https://git-scm.com/book/en/v2/Git-Basics-Undoing-Things</t>
+  </si>
+  <si>
+    <t>Link to undoing things article</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,10 +142,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,15 +173,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1621,15 +1644,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="1" max="1" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1763,15 +1786,29 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/git_notes.xlsx
+++ b/git_notes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Command</t>
   </si>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>Link to undoing things article</t>
+  </si>
+  <si>
+    <t>git checkout &lt;filename&gt;</t>
+  </si>
+  <si>
+    <t>use this to undo a change to a file that has not been staged yet</t>
+  </si>
+  <si>
+    <t>get reset HEAD &lt;filename&gt;</t>
+  </si>
+  <si>
+    <t>use this to un-stage a modified file that was previously staged. It will leave the file modified.</t>
   </si>
 </sst>
 </file>
@@ -1644,10 +1656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,6 +1812,22 @@
       </c>
       <c r="B21" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
